--- a/Data_Set/Sunbeam.xlsx
+++ b/Data_Set/Sunbeam.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIS_STUFF\SUBJEK PENGAJARAN\MRTB1123_Applied Stat for BI\Data Set\excel_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEAB939-A787-4917-928C-854A2A78BBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="11340" windowHeight="6030" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -123,6 +129,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -170,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,9 +212,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,6 +264,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,19 +456,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -433,7 +476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>112</v>
       </c>
@@ -441,7 +484,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>109</v>
       </c>
@@ -449,7 +492,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>139</v>
       </c>
@@ -457,7 +500,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>141</v>
       </c>
@@ -465,7 +508,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>120</v>
       </c>
@@ -473,7 +516,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>99</v>
       </c>
@@ -481,7 +524,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>128</v>
       </c>
@@ -489,7 +532,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>118</v>
       </c>
@@ -497,7 +540,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>116</v>
       </c>
@@ -505,7 +548,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>120</v>
       </c>
@@ -513,7 +556,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>111</v>
       </c>
@@ -521,7 +564,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>123</v>
       </c>
@@ -529,7 +572,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>114</v>
       </c>
@@ -537,7 +580,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>121</v>
       </c>
@@ -545,12 +588,292 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>132</v>
       </c>
       <c r="B16" s="1">
         <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>120</v>
+      </c>
+      <c r="B17" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>111</v>
+      </c>
+      <c r="B18" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>123</v>
+      </c>
+      <c r="B19" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>114</v>
+      </c>
+      <c r="B20" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>121</v>
+      </c>
+      <c r="B21" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>132</v>
+      </c>
+      <c r="B22" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>139</v>
+      </c>
+      <c r="B23" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>141</v>
+      </c>
+      <c r="B24" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>120</v>
+      </c>
+      <c r="B25" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>99</v>
+      </c>
+      <c r="B26" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>128</v>
+      </c>
+      <c r="B27" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>118</v>
+      </c>
+      <c r="B28" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>116</v>
+      </c>
+      <c r="B29" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>123</v>
+      </c>
+      <c r="B30" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>114</v>
+      </c>
+      <c r="B31" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>111</v>
+      </c>
+      <c r="B32" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>123</v>
+      </c>
+      <c r="B33" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>114</v>
+      </c>
+      <c r="B34" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>121</v>
+      </c>
+      <c r="B35" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>132</v>
+      </c>
+      <c r="B36" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>139</v>
+      </c>
+      <c r="B37" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>141</v>
+      </c>
+      <c r="B38" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>120</v>
+      </c>
+      <c r="B39" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>99</v>
+      </c>
+      <c r="B40" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>128</v>
+      </c>
+      <c r="B41" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>112</v>
+      </c>
+      <c r="B42" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>109</v>
+      </c>
+      <c r="B43" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>139</v>
+      </c>
+      <c r="B44" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>141</v>
+      </c>
+      <c r="B45" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>120</v>
+      </c>
+      <c r="B46" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>99</v>
+      </c>
+      <c r="B47" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>128</v>
+      </c>
+      <c r="B48" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>118</v>
+      </c>
+      <c r="B49" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>116</v>
+      </c>
+      <c r="B50" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>120</v>
+      </c>
+      <c r="B51" s="1">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -561,31 +884,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>4</v>
       </c>
